--- a/biology/Écologie/Isabelle_Chuine/Isabelle_Chuine.xlsx
+++ b/biology/Écologie/Isabelle_Chuine/Isabelle_Chuine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isabelle Chuine est une écologue terrestre, directrice de recherche au Centre d'écologie fonctionnelle et évolutive de Montpellier[1]. Ses travaux sont consacrés aux rythmes de développement et à la répartition géographique des arbres forestiers des régions tempérées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabelle Chuine est une écologue terrestre, directrice de recherche au Centre d'écologie fonctionnelle et évolutive de Montpellier. Ses travaux sont consacrés aux rythmes de développement et à la répartition géographique des arbres forestiers des régions tempérées.
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publications
-Les plantes au rythme des saisons Ed. Biotope (2018) avec Vincent Badeau, Marc Bonhomme, Fabrice Bonne, Jennifer Carré, Sébastien Cecchini, Catherine Ducatillion, Frédéric Jean, François Lebourgeois[2].
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes au rythme des saisons Ed. Biotope (2018) avec Vincent Badeau, Marc Bonhomme, Fabrice Bonne, Jennifer Carré, Sébastien Cecchini, Catherine Ducatillion, Frédéric Jean, François Lebourgeois.
 </t>
         </is>
       </c>
@@ -543,13 +560,15 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2009 : Médaille de bronze du CNRS[3]
-2020 : Médaille d'argent du CNRS[4]
-2020 : élection à l'Académie des sciences dans la section de biologie intégrative[1]
-2022 :  Chevalière de la Légion d'honneur[5]
-2023 : Prix de la recherche participative[6]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2009 : Médaille de bronze du CNRS
+2020 : Médaille d'argent du CNRS
+2020 : élection à l'Académie des sciences dans la section de biologie intégrative
+2022 :  Chevalière de la Légion d'honneur
+2023 : Prix de la recherche participative</t>
         </is>
       </c>
     </row>
